--- a/StudentData/Tutorials/Unit1/1.2.5/zoo_exhibit_satisfaction_scores2.xlsx
+++ b/StudentData/Tutorials/Unit1/1.2.5/zoo_exhibit_satisfaction_scores2.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28DD7F75-A303-4B32-837F-842ED8A097FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://strategicedinc-my.sharepoint.com/personal/melissa_estremera_sophia_org/Documents/Documents/BDA/BDA_Excel/StudentData/Tutorials/Unit1/1.2.5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F62EDCF-2549-4F86-8663-40A761D2AC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PivotTable" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="15178" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,10 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -410,7 +414,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEBC0A2E-5F81-481C-8E51-011254F2E1DE}" name="PivotTable1" cacheId="15178" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEBC0A2E-5F81-481C-8E51-011254F2E1DE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField compact="0" outline="0" showAll="0">
@@ -848,15 +852,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.53515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -866,58 +870,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7">
         <v>13</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>50</v>
       </c>
-      <c r="C8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -932,13 +935,13 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.84375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -954,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -962,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -970,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -978,7 +981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -986,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -994,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1010,7 +1013,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1026,7 +1029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1034,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1106,7 +1109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1210,7 +1213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1234,7 +1237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1250,7 +1253,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1258,7 +1261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1266,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1274,7 +1277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1306,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1338,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1639,13 +1642,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52B429A4-4E43-4646-82EE-FEFB0D567DED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52B429A4-4E43-4646-82EE-FEFB0D567DED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EF353D-E649-4A82-921B-64A0E2DC71D4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EF353D-E649-4A82-921B-64A0E2DC71D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cb71b97d-9a65-4f5a-80e4-73af0d9029ad"/>
+    <ds:schemaRef ds:uri="c7bf0040-ac83-4da7-b072-3c1b65a214b3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF9D8C5-43D9-4336-BE03-4360A413646D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EF9D8C5-43D9-4336-BE03-4360A413646D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>